--- a/pred_ohlcv/54_21/2019-10-21 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 LAMB ohlcv.xlsx
@@ -7490,7 +7490,7 @@
         <v>-1376633.428200001</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1378610.588900001</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1380528.192400001</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1380518.192400001</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1359330.049500001</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1359320.049500001</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1352316.274000001</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1733716.188000001</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1724831.5544</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1721875.6709</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1720079.6709</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1725416.6709</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1746864.0533</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1746854.0533</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1847667.024400001</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2163389.939800001</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1972167.882700001</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1837321.593200001</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1837311.593200001</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1838396.740300001</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1838374.815700001</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1848969.433700001</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1848969.433700001</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1845410.695800001</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1939662.542758363</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1939662.542758363</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-2283364.572858363</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-2279000.072858363</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-2521587.225958363</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-2521587.225958363</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-2474587.225958363</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-2427187.225958363</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-1405961.637973817</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-834441.4862738173</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-1082512.146773817</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-1020620.701673817</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-1019444.730973817</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-761656.5421738169</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-712478.2318738169</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-414940.3240738169</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-414940.3240738169</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-208314.7475583624</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-377106.6229814854</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-455354.9325814854</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-424051.8760814854</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>1616612.971584795</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>1549439.256684795</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>1549439.256684795</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>1005277.932084795</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>1005277.932084795</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>932653.1220847946</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>981594.8324847945</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>1215384.409784795</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>1256110.010284794</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>1348591.101784795</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>1324653.265884795</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>1491144.31049349</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>1479829.802658607</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>1479829.802658607</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>1499729.802658607</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>1416119.462158607</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>1441684.196058607</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>1524395.756058607</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>1524395.756058607</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-21 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 LAMB ohlcv.xlsx
@@ -7490,7 +7490,7 @@
         <v>-1376633.428200001</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1378620.588900001</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1378610.588900001</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1380528.192400001</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1380518.192400001</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1388037.319100001</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1359330.049500001</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1359320.049500001</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1352316.274000001</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1733716.188000001</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1746864.0533</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1753543.482900001</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1838396.740300001</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1838374.815700001</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1848969.433700001</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1848969.433700001</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1845410.695800001</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1947127.839300001</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1932609.660700001</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1932609.660700001</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-1757454.479258363</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-1941670.774058363</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1941700.774058363</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-1939200.774058363</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-2283364.572858363</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-2279000.072858363</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-1405961.637973817</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-834441.4862738173</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-1082512.146773817</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-1020620.701673817</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-1019444.730973817</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-761656.5421738169</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-712478.2318738169</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-495819.6837738169</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-414940.3240738169</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-414940.3240738169</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-208314.7475583624</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-377106.6229814854</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-455354.9325814854</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-424051.8760814854</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>1616612.971584795</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>1549439.256684795</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>1549439.256684795</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>1005277.932084795</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>1005277.932084795</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>932653.1220847946</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>1256110.010284794</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>1348591.101784795</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>1324653.265884795</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>1491144.31049349</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>1479829.802658607</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>1479829.802658607</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>1499729.802658607</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>1416119.462158607</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>1441684.196058607</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>1524395.756058607</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>1524395.756058607</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
